--- a/ExcelCalc/LinkRatioSmoothing.xlsx
+++ b/ExcelCalc/LinkRatioSmoothing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="19875" windowHeight="7710" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="405" windowWidth="19875" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,12 @@
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="40">
   <si>
     <t>Paid</t>
   </si>
@@ -149,16 +149,25 @@
   <si>
     <t>ln(ln(f/(f-1)))</t>
   </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Incremential</t>
+  </si>
+  <si>
+    <t>Cummulated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +175,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,8 +205,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,100 +501,1003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.2469440199999999</v>
-      </c>
-      <c r="C2">
-        <v>1.19471971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
+        <v>1997</v>
+      </c>
+      <c r="B3">
+        <v>4426765</v>
+      </c>
+      <c r="C3">
+        <v>992330</v>
+      </c>
+      <c r="D3">
+        <v>88952</v>
+      </c>
+      <c r="E3">
+        <v>13240</v>
+      </c>
+      <c r="F3">
+        <v>38622</v>
+      </c>
+      <c r="G3">
+        <v>26720</v>
+      </c>
+      <c r="H3">
+        <v>36818</v>
+      </c>
+      <c r="I3">
+        <v>10750</v>
+      </c>
+      <c r="K3">
+        <v>1997</v>
+      </c>
+      <c r="L3">
+        <v>4873559</v>
+      </c>
+      <c r="M3">
+        <v>853069</v>
+      </c>
+      <c r="N3">
+        <v>-83150</v>
+      </c>
+      <c r="O3">
+        <v>59732</v>
+      </c>
+      <c r="P3">
+        <v>83881</v>
+      </c>
+      <c r="Q3">
+        <v>71846</v>
+      </c>
+      <c r="R3">
+        <v>3624</v>
+      </c>
+      <c r="S3">
+        <v>-70663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1998</v>
+      </c>
+      <c r="B4">
+        <v>4388958</v>
+      </c>
+      <c r="C4">
+        <v>984169</v>
+      </c>
+      <c r="D4">
+        <v>60162</v>
+      </c>
+      <c r="E4">
+        <v>35004</v>
+      </c>
+      <c r="F4">
+        <v>75768</v>
+      </c>
+      <c r="G4">
+        <v>23890</v>
+      </c>
+      <c r="H4">
+        <v>572</v>
+      </c>
+      <c r="K4">
+        <v>1998</v>
+      </c>
+      <c r="L4">
+        <v>5130849</v>
+      </c>
+      <c r="M4">
+        <v>967272</v>
+      </c>
+      <c r="N4">
+        <v>79653</v>
+      </c>
+      <c r="O4">
+        <v>-12315</v>
+      </c>
+      <c r="P4">
+        <v>126541</v>
+      </c>
+      <c r="Q4">
+        <v>12102</v>
+      </c>
+      <c r="R4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1999</v>
+      </c>
+      <c r="B5">
+        <v>5280130</v>
+      </c>
+      <c r="C5">
+        <v>1239396</v>
+      </c>
+      <c r="D5">
+        <v>76122</v>
+      </c>
+      <c r="E5">
+        <v>110189</v>
+      </c>
+      <c r="F5">
+        <v>112895</v>
+      </c>
+      <c r="G5">
+        <v>11751</v>
+      </c>
+      <c r="K5">
+        <v>1999</v>
+      </c>
+      <c r="L5">
+        <v>5945611</v>
+      </c>
+      <c r="M5">
+        <v>1580045</v>
+      </c>
+      <c r="N5">
+        <v>32159</v>
+      </c>
+      <c r="O5">
+        <v>-180480</v>
+      </c>
+      <c r="P5">
+        <v>64785</v>
+      </c>
+      <c r="Q5">
+        <v>-23254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>5445384</v>
+      </c>
+      <c r="C6">
+        <v>1164234</v>
+      </c>
+      <c r="D6">
+        <v>171583</v>
+      </c>
+      <c r="E6">
+        <v>16427</v>
+      </c>
+      <c r="F6">
+        <v>6451</v>
+      </c>
+      <c r="K6">
+        <v>2000</v>
+      </c>
+      <c r="L6">
+        <v>6632221</v>
+      </c>
+      <c r="M6">
+        <v>1228881</v>
+      </c>
+      <c r="N6">
+        <v>-328165</v>
+      </c>
+      <c r="O6">
+        <v>-4469</v>
+      </c>
+      <c r="P6">
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7">
+        <v>5612138</v>
+      </c>
+      <c r="C7">
+        <v>1837950</v>
+      </c>
+      <c r="D7">
+        <v>155863</v>
+      </c>
+      <c r="E7">
+        <v>127146</v>
+      </c>
+      <c r="K7">
+        <v>2001</v>
+      </c>
+      <c r="L7">
+        <v>7020974</v>
+      </c>
+      <c r="M7">
+        <v>1667612</v>
+      </c>
+      <c r="N7">
+        <v>24278</v>
+      </c>
+      <c r="O7">
+        <v>-37897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>2002</v>
+      </c>
+      <c r="B8">
+        <v>6593299</v>
+      </c>
+      <c r="C8">
+        <v>1592418</v>
+      </c>
+      <c r="D8">
+        <v>74189</v>
+      </c>
+      <c r="K8">
+        <v>2002</v>
+      </c>
+      <c r="L8">
+        <v>8275453</v>
+      </c>
+      <c r="M8">
+        <v>1591873</v>
+      </c>
+      <c r="N8">
+        <v>64978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>2003</v>
+      </c>
+      <c r="B9">
+        <v>6603091</v>
+      </c>
+      <c r="C9">
+        <v>1659748</v>
+      </c>
+      <c r="K9">
+        <v>2003</v>
+      </c>
+      <c r="L9">
+        <v>9000368</v>
+      </c>
+      <c r="M9">
+        <v>1239520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10">
+        <v>7194587</v>
+      </c>
+      <c r="K10">
+        <v>2004</v>
+      </c>
+      <c r="L10">
+        <v>9511539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="str">
+        <f>A2</f>
+        <v>Paid</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:H13" si="0">B2</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.0158472199999999</v>
-      </c>
-      <c r="C3">
-        <v>0.99540618999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="D13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1.00946012</v>
-      </c>
-      <c r="C4">
-        <v>0.99507566000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1.0095429499999999</v>
-      </c>
-      <c r="C5">
-        <v>1.0101815999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="F13">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1.00347944</v>
-      </c>
-      <c r="C6">
-        <v>1.0031091299999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="G13">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1.0033519900000001</v>
-      </c>
-      <c r="C7">
-        <v>1.00031727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1.0019116400000001</v>
-      </c>
-      <c r="C8">
-        <v>0.98794674000000005</v>
+      <c r="I13">
+        <f>I2</f>
+        <v>8</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:K21" si="1">K2</f>
+        <v>Incurred</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:R13" si="2">L2</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <f>S2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <f t="shared" ref="A14:B20" si="3">A3</f>
+        <v>1997</v>
+      </c>
+      <c r="B14">
+        <f>B3</f>
+        <v>4426765</v>
+      </c>
+      <c r="C14">
+        <f>B14+C3</f>
+        <v>5419095</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:H19" si="4">C14+D3</f>
+        <v>5508047</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>5521287</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>5559909</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>5586629</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>5623447</v>
+      </c>
+      <c r="I14">
+        <f>H14+I3</f>
+        <v>5634197</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1997</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L21" si="5">L3</f>
+        <v>4873559</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:S14" si="6">L14+M3</f>
+        <v>5726628</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>5643478</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>5703210</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>5787091</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>5858937</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>5862561</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>5791898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>1998</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>4388958</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C20" si="7">B15+C4</f>
+        <v>5373127</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>5433289</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>5468293</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>5544061</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>5567951</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>5568523</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1998</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>5130849</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:R20" si="8">L15+M4</f>
+        <v>6098121</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>6177774</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>6165459</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>6292000</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>6304102</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>6304337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>1999</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>5280130</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="7"/>
+        <v>6519526</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>6595648</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>6705837</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>6818732</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>6830483</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>5945611</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>7525656</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="8"/>
+        <v>7557815</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>7377335</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>7442120</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="8"/>
+        <v>7418866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>5445384</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="7"/>
+        <v>6609618</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>6781201</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>6797628</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>6804079</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>6632221</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>7861102</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>7532937</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>7528468</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>7525868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>2001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>5612138</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="7"/>
+        <v>7450088</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>7605951</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>7733097</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>7020974</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>8688586</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>8712864</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>8674967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>2002</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>6593299</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>8185717</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>8259906</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>8275453</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>9867326</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>9932304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>2003</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>6603091</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="7"/>
+        <v>8262839</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>9000368</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>10239888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <f>A10</f>
+        <v>2004</v>
+      </c>
+      <c r="B21">
+        <f>B10</f>
+        <v>7194587</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>9511539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <f>SUMIF(C14:C21,"&lt;&gt;",C14:C21)/SUMIF(C14:C21,"&lt;&gt;",B14:B21)</f>
+        <v>1.2469440164757202</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:H23" si="9">SUMIF(D14:D21,"&lt;&gt;",D14:D21)/SUMIF(D14:D21,"&lt;&gt;",C14:C21)</f>
+        <v>1.015847215161064</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>1.0094601150677969</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>1.0095429539283498</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>1.0034794418832607</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>1.0033519863589664</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>1.0019116388933691</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23">
+        <f>SUMIF(M14:M21,"&lt;&gt;",M14:M21)/SUMIF(M14:M21,"&lt;&gt;",L14:L21)</f>
+        <v>1.1947197078608807</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:R23" si="10">SUMIF(N14:N21,"&lt;&gt;",N14:N21)/SUMIF(N14:N21,"&lt;&gt;",M14:M21)</f>
+        <v>0.99540618622168753</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>0.99507565894700301</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>1.0101816013402618</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>1.0031091308833249</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="10"/>
+        <v>1.0003172726816054</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>0.98794673522373588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF($F$25=1,B25,C25)</f>
+        <v>Paid</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f ca="1">INDIRECT(ADDRESS(23,1+A26))</f>
+        <v>1.2469440164757202</v>
+      </c>
+      <c r="C26">
+        <f ca="1">INDIRECT(ADDRESS(23,11+A26))</f>
+        <v>1.1947197078608807</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E32" ca="1" si="11">IF($F$25=1,B26,C26)</f>
+        <v>1.2469440164757202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B32" ca="1" si="12">INDIRECT(ADDRESS(23,1+A27))</f>
+        <v>1.015847215161064</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C32" ca="1" si="13">INDIRECT(ADDRESS(23,11+A27))</f>
+        <v>0.99540618622168753</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.015847215161064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0094601150677969</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.99507565894700301</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0094601150677969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0095429539283498</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0101816013402618</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0095429539283498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0034794418832607</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0031091308833249</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0034794418832607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0033519863589664</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0003172726816054</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0033519863589664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0019116388933691</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.98794673522373588</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.0019116388933691</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -588,14 +1506,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -639,16 +1558,16 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B6">
-        <f>Data!B2</f>
-        <v>1.2469440199999999</v>
+        <f ca="1">Data!B26</f>
+        <v>1.2469440164757202</v>
       </c>
       <c r="C6">
-        <f>LN(B6-1)</f>
-        <v>-1.3985936077169261</v>
+        <f ca="1">LN(B6-1)</f>
+        <v>-1.3985936219884998</v>
       </c>
       <c r="D6">
         <f>LN(1/A6)</f>
@@ -662,111 +1581,111 @@
         <v>-8.5251613610654147</v>
       </c>
       <c r="M6" s="2">
-        <f>1+$S$7*A6^(-$S$6)</f>
-        <v>1.1537966938078985</v>
+        <f t="shared" ref="M6:M12" ca="1" si="0">1+$S$7*A6^(-$S$6)</f>
+        <v>1.1537966945472922</v>
       </c>
       <c r="O6" t="s">
         <v>10</v>
       </c>
       <c r="P6">
-        <f>(K11*K8-K6*K7)/(K11*K9-K6^2)</f>
-        <v>2.2720966250124204</v>
+        <f ca="1">(K11*K8-K6*K7)/(K11*K9-K6^2)</f>
+        <v>2.2720968111509614</v>
       </c>
       <c r="R6" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="2">
-        <f>P6</f>
-        <v>2.2720966250124204</v>
+        <f ca="1">P6</f>
+        <v>2.2720968111509614</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B7">
-        <f>Data!B3</f>
-        <v>1.0158472199999999</v>
+        <f ca="1">Data!B27</f>
+        <v>1.015847215161064</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C12" si="0">LN(B7-1)</f>
-        <v>-4.1447611883640008</v>
+        <f t="shared" ref="C7:C12" ca="1" si="1">LN(B7-1)</f>
+        <v>-4.1447614937132453</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D12" si="1">LN(1/A7)</f>
+        <f t="shared" ref="D7:D12" si="2">LN(1/A7)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7">
-        <f>SUM(C6:C12)</f>
-        <v>-32.474856388038241</v>
+        <f ca="1">SUM(C6:C12)</f>
+        <v>-32.474857941246114</v>
       </c>
       <c r="M7">
-        <f>1+$S$7*A7^(-$S$6)</f>
-        <v>1.0318403448156785</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0318403408606687</v>
       </c>
       <c r="O7" t="s">
         <v>11</v>
       </c>
       <c r="P7">
-        <f>(K7*K9-K6*K8)/(K11*K9-K6^2)</f>
-        <v>-1.8721237188393196</v>
+        <f ca="1">(K7*K9-K6*K8)/(K11*K9-K6^2)</f>
+        <v>-1.8721237140317155</v>
       </c>
       <c r="R7" t="s">
         <v>18</v>
       </c>
       <c r="S7" s="2">
-        <f>EXP(P7)</f>
-        <v>0.15379669380789854</v>
+        <f ca="1">EXP(P7)</f>
+        <v>0.15379669454729214</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B8">
-        <f>Data!B4</f>
-        <v>1.00946012</v>
+        <f ca="1">Data!B28</f>
+        <v>1.0094601150677969</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-4.6606702110093785</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.6606707323774348</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0986122886681098</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8">
-        <f>SUMPRODUCT(C6:C12,D6:D12)</f>
-        <v>45.943817938678144</v>
+        <f ca="1">SUMPRODUCT(C6:C12,D6:D12)</f>
+        <v>45.943820354064727</v>
       </c>
       <c r="M8">
-        <f>1+$S$7*A8^(-$S$6)</f>
-        <v>1.012673057545219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0126730550145808</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B9">
-        <f>Data!B5</f>
-        <v>1.0095429499999999</v>
+        <f ca="1">Data!B29</f>
+        <v>1.0095429539283498</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-4.6519526170032757</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.6519522053539371</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3862943611198906</v>
       </c>
       <c r="J9" t="s">
@@ -777,54 +1696,54 @@
         <v>13.196472728148699</v>
       </c>
       <c r="M9">
-        <f>1+$S$7*A9^(-$S$6)</f>
-        <v>1.0065918683482729</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0065918666789799</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B10">
-        <f>Data!B6</f>
-        <v>1.00347944</v>
+        <f ca="1">Data!B30</f>
+        <v>1.0034794418832607</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-5.6608839176849219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.6608833764311148</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.6094379124341003</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10">
-        <f>SUMPRODUCT(C6:C12,C6:C12)</f>
-        <v>166.19773962885185</v>
+        <f ca="1">SUMPRODUCT(C6:C12,C6:C12)</f>
+        <v>166.19775672853012</v>
       </c>
       <c r="M10">
-        <f>1+$S$7*A10^(-$S$6)</f>
-        <v>1.0039702660641627</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0039702648938444</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B11">
-        <f>Data!B7</f>
-        <v>1.0033519900000001</v>
+        <f ca="1">Data!B31</f>
+        <v>1.0033519863589664</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-5.698201079660282</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.6982021658913489</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.791759469228055</v>
       </c>
       <c r="J11" t="s">
@@ -834,30 +1753,30 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <f>1+$S$7*A11^(-$S$6)</f>
-        <v>1.0026236878837769</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0026236870213501</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B12">
-        <f>Data!B8</f>
-        <v>1.0019116400000001</v>
+        <f ca="1">Data!B32</f>
+        <v>1.0019116388933691</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-6.259793766599457</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.2597943454905298</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.9459101490553135</v>
       </c>
       <c r="M12">
-        <f>1+$S$7*A12^(-$S$6)</f>
-        <v>1.0018484282398543</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0018484275792239</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -890,23 +1809,23 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B16">
-        <f>Data!C2</f>
-        <v>1.19471971</v>
+        <f ca="1">Data!C26</f>
+        <v>1.1947197078608807</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C22" si="2">LN(B16-1)</f>
-        <v>-1.6361941390620243</v>
+        <f t="shared" ref="C16:C22" ca="1" si="3">LN(B16-1)</f>
+        <v>-1.6361941500476576</v>
       </c>
       <c r="D16">
         <f>LN(1/A16)</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>C16*D16</f>
+        <f ca="1">C16*D16</f>
         <v>0</v>
       </c>
       <c r="F16">
@@ -914,268 +1833,276 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f>C16*C16</f>
-        <v>2.6771312607009188</v>
+        <f ca="1">C16*C16</f>
+        <v>2.6771312966501766</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
       <c r="K16">
-        <f>SUMIF(B16:B22,"&gt;1",D16:D22)</f>
+        <f ca="1">SUMIF(B16:B22,"&gt;1",D16:D22)</f>
         <v>-4.7874917427820458</v>
       </c>
       <c r="M16" t="s">
         <v>10</v>
       </c>
       <c r="N16">
-        <f>(K21*K18-K16*K17)/(K21*K19-K16^2)</f>
-        <v>3.0538554921691921</v>
+        <f ca="1">(K21*K18-K16*K17)/(K21*K19-K16^2)</f>
+        <v>3.053852890729964</v>
       </c>
       <c r="P16" t="s">
         <v>19</v>
       </c>
       <c r="Q16">
-        <f>N16</f>
-        <v>3.0538554921691921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <f ca="1">N16</f>
+        <v>3.053852890729964</v>
+      </c>
+      <c r="R16" s="2">
+        <f ca="1">EXP(0-Q16)</f>
+        <v>4.717680669545514E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B17">
-        <f>Data!C3</f>
-        <v>0.99540618999999997</v>
+        <f ca="1">Data!C27</f>
+        <v>0.99540618622168753</v>
       </c>
       <c r="C17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D22" si="3">LN(1/A17)</f>
+        <f t="shared" ref="D17:D22" si="4">LN(1/A17)</f>
         <v>-0.69314718055994529</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" ref="E17:E22" si="4">C17*D17</f>
+        <f t="shared" ref="E17:E22" ca="1" si="5">C17*D17</f>
         <v>#NUM!</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F22" si="5">D17*D17</f>
+        <f t="shared" ref="F17:F22" si="6">D17*D17</f>
         <v>0.48045301391820139</v>
       </c>
       <c r="G17" t="e">
-        <f t="shared" ref="G17:G22" si="6">C17*C17</f>
+        <f t="shared" ref="G17:G22" ca="1" si="7">C17*C17</f>
         <v>#NUM!</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17">
-        <f>SUMIF(B16:B22,"&gt;1",C16:C22)</f>
-        <v>-20.052536994631616</v>
+        <f ca="1">SUMIF(B16:B22,"&gt;1",C16:C22)</f>
+        <v>-20.052528137786531</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
       </c>
       <c r="N17">
-        <f>(K17*K19-K16*K18)/(K21*K19-K16^2)</f>
-        <v>-1.3580572605555004</v>
+        <f ca="1">(K17*K19-K16*K18)/(K21*K19-K16^2)</f>
+        <v>-1.3580581599364381</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
       </c>
       <c r="Q17">
-        <f>EXP(N17)</f>
-        <v>0.25715988663184924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <f ca="1">EXP(N17)</f>
+        <v>0.25715965534725327</v>
+      </c>
+      <c r="R17" s="2">
+        <f ca="1">N17</f>
+        <v>-1.3580581599364381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B18">
-        <f>Data!C4</f>
-        <v>0.99507566000000003</v>
+        <f ca="1">Data!C28</f>
+        <v>0.99507565894700301</v>
       </c>
       <c r="C18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.0986122886681098</v>
       </c>
       <c r="E18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2069489608125821</v>
       </c>
       <c r="G18" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#NUM!</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
       <c r="K18">
-        <f>SUMIF(B16:B22,"&gt;1",E16:E22)</f>
-        <v>30.085100534475171</v>
+        <f ca="1">SUMIF(B16:B22,"&gt;1",E16:E22)</f>
+        <v>30.085084750627967</v>
       </c>
       <c r="M18" t="s">
         <v>27</v>
       </c>
       <c r="N18">
-        <f>1-SUM(L25:L31)/SUM(M25:M31)</f>
-        <v>0.83264759799386179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <f ca="1">1-SUM(L25:L31)/SUM(M25:M31)</f>
+        <v>0.83264837192275676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B19">
-        <f>Data!C5</f>
-        <v>1.0101815999999999</v>
+        <f ca="1">Data!C29</f>
+        <v>1.0101816013402618</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>-4.5871731092864465</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.587172977650769</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3862943611198906</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>6.3591722148845964</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.3591720323987992</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9218120556728056</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
-        <v>21.042157134560686</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.042155926889421</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
       </c>
       <c r="K19">
-        <f>SUMIF(B16:B22,"&gt;1",F16:F22)</f>
+        <f ca="1">SUMIF(B16:B22,"&gt;1",F16:F22)</f>
         <v>7.7225044452214417</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B20">
-        <f>Data!C6</f>
-        <v>1.0031091299999999</v>
+        <f ca="1">Data!C30</f>
+        <v>1.0031091308833249</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>-5.7734123346916046</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.773412050584847</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.6094379124341003</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>9.291948695567342</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9.2919482383151539</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5902903939802346</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
-        <v>33.332289986369162</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>33.332286705838328</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
       </c>
       <c r="K20">
-        <f>SUMIF(B16:B22,"&gt;1",G16:G22)</f>
-        <v>121.94680585604284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <f ca="1">SUMIF(B16:B22,"&gt;1",G16:G22)</f>
+        <v>121.94666522791576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B21">
-        <f>Data!C7</f>
-        <v>1.00031727</v>
+        <f ca="1">Data!C31</f>
+        <v>1.0003172726816054</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>-8.0557574115915429</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.0557489595032585</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.791759469228055</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>14.433979624023232</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.433964479914014</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2104019955684011</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
-        <v>64.895227474412081</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>64.895091298537835</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21">
-        <f>COUNTIF(B16:B22,"&gt;1")</f>
+        <f ca="1">COUNTIF(B16:B22,"&gt;1")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B22">
-        <f>Data!C8</f>
-        <v>0.98794674000000005</v>
+        <f ca="1">Data!C32</f>
+        <v>0.98794673522373588</v>
       </c>
       <c r="C22" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.9459101490553135</v>
       </c>
       <c r="E22" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7865663081964724</v>
       </c>
       <c r="G22" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="J24" t="s">
         <v>20</v>
       </c>
@@ -1186,107 +2113,108 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="J25" s="2">
-        <f>1+$Q$17*A16^(-$Q$16)</f>
-        <v>1.2571598866318492</v>
+        <f t="shared" ref="J25:J31" ca="1" si="8">1+$Q$17*A16^(-$Q$16)</f>
+        <v>1.2571596553472533</v>
       </c>
       <c r="L25">
-        <f>(B16-J25)^2</f>
-        <v>3.8987756578165267E-3</v>
+        <f ca="1">(B16-J25)^2</f>
+        <v>3.8987470421009687E-3</v>
       </c>
       <c r="M25">
-        <f>(B16-AVERAGE($B$16:$B$22))^2</f>
-        <v>2.8237521779142707E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <f t="shared" ref="M25:M31" ca="1" si="9">(B16-AVERAGE($B$16:$B$22))^2</f>
+        <v>2.82375213886971E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="J26">
-        <f>1+$Q$17*A17^(-$Q$16)</f>
-        <v>1.0309671416073256</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0309671695954201</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L31" si="7">(B17-J26)^2</f>
-        <v>1.2645812792185561E-3</v>
+        <f t="shared" ref="L26:L31" ca="1" si="10">(B17-J26)^2</f>
+        <v>1.2645835385068857E-3</v>
       </c>
       <c r="M26">
-        <f>(B17-AVERAGE($B$16:$B$22))^2</f>
-        <v>9.7801813131061753E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.7801830650075575E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="J27">
-        <f>1+$Q$17*A18^(-$Q$16)</f>
-        <v>1.0089772611998344</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0089772787826452</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
-        <v>1.9325451591923758E-4</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9325503405472061E-4</v>
       </c>
       <c r="M27">
-        <f>(B18-AVERAGE($B$16:$B$22))^2</f>
-        <v>9.9880089681268509E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.9880090159370572E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="J28">
-        <f>1+$Q$17*A19^(-$Q$16)</f>
-        <v>1.0037290569376436</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0037290670321384</v>
       </c>
       <c r="L28">
-        <f t="shared" si="7"/>
-        <v>4.1635311971562668E-5</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.1635198997509853E-5</v>
       </c>
       <c r="M28">
-        <f>(B19-AVERAGE($B$16:$B$22))^2</f>
-        <v>2.721797616736688E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.7217968520211407E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="J29">
-        <f>1+$Q$17*A20^(-$Q$16)</f>
-        <v>1.0018864697215637</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0018864759232939</v>
       </c>
       <c r="L29">
-        <f t="shared" si="7"/>
-        <v>1.4948981564656985E-6</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4948851512882431E-6</v>
       </c>
       <c r="M29">
-        <f>(B20-AVERAGE($B$16:$B$22))^2</f>
-        <v>5.5556099505942383E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.5556090734560476E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="J30">
-        <f>1+$Q$17*A21^(-$Q$16)</f>
-        <v>1.0010810399804664</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0010810440471003</v>
       </c>
       <c r="L30">
-        <f t="shared" si="7"/>
-        <v>5.8334458306156027E-7</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.8334669874991478E-7</v>
       </c>
       <c r="M30">
-        <f>(B21-AVERAGE($B$16:$B$22))^2</f>
-        <v>6.9496566416055888E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.9496547124396114E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="J31">
-        <f>1+$Q$17*A22^(-$Q$16)</f>
-        <v>1.0006751432573386</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0006751460678214</v>
       </c>
       <c r="L31">
-        <f t="shared" si="7"/>
-        <v>1.6201224948142774E-4</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.6201244261583312E-4</v>
       </c>
       <c r="M31">
-        <f>(B22-AVERAGE($B$16:$B$22))^2</f>
-        <v>1.5002244839178228E-3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.5002247782019325E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1294,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,8 +2249,9 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="A4" t="str">
+        <f ca="1">Data!E25</f>
+        <v>Paid</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1347,261 +2276,261 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B6">
-        <f>Data!B2</f>
-        <v>1.2469440199999999</v>
+        <f ca="1">Data!B26</f>
+        <v>1.2469440164757202</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C12" si="0">LN(B6-1)</f>
-        <v>-1.3985936077169261</v>
+        <f t="shared" ref="C6:C12" ca="1" si="0">LN(B6-1)</f>
+        <v>-1.3985936219884998</v>
       </c>
       <c r="D6">
-        <f>C6*A6</f>
-        <v>-1.3985936077169261</v>
+        <f ca="1">C6*A6</f>
+        <v>-1.3985936219884998</v>
       </c>
       <c r="E6">
         <f>A6*A6</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>C6*C6</f>
-        <v>1.9560640795466469</v>
+        <f t="shared" ref="F6:F12" ca="1" si="1">C6*C6</f>
+        <v>1.9560641194669106</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6">
-        <f>SUMIF(B6:B12,"&gt;1",A6:A12)</f>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",A6:A12)</f>
         <v>28</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6">
-        <f>(J11*J8-J6*J7)/(J11*J9-J6^2)</f>
-        <v>-0.66752478449698938</v>
+        <f ca="1">(J11*J8-J6*J7)/(J11*J9-J6^2)</f>
+        <v>-0.66752486281842727</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
       </c>
       <c r="P6">
-        <f>-M6</f>
-        <v>0.66752478449698938</v>
+        <f ca="1">-M6</f>
+        <v>0.66752486281842727</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B7">
-        <f>Data!B3</f>
-        <v>1.0158472199999999</v>
+        <f ca="1">Data!B27</f>
+        <v>1.015847215161064</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-4.1447611883640008</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.1447614937132453</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D12" si="1">C7*A7</f>
-        <v>-8.2895223767280015</v>
+        <f t="shared" ref="D7:D12" ca="1" si="2">C7*A7</f>
+        <v>-8.2895229874264906</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E12" si="2">A7*A7</f>
+        <f t="shared" ref="E7:E12" si="3">A7*A7</f>
         <v>4</v>
       </c>
       <c r="F7">
-        <f>C7*C7</f>
-        <v>17.179045308568565</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17.179047839768053</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7">
-        <f>SUMIF(B6:B12,"&gt;1",C6:C12)</f>
-        <v>-32.474856388038241</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",C6:C12)</f>
+        <v>-32.474857941246114</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7">
-        <f>(J7*J9-J6*J8)/(J11*J9-J6^2)</f>
-        <v>-1.9691660603032186</v>
+        <f ca="1">(J7*J9-J6*J8)/(J11*J9-J6^2)</f>
+        <v>-1.9691659689043048</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7">
-        <f>EXP(M7)</f>
-        <v>0.139573203329933</v>
+        <f ca="1">EXP(M7)</f>
+        <v>0.13957321608677276</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B8">
-        <f>Data!B4</f>
-        <v>1.00946012</v>
+        <f ca="1">Data!B28</f>
+        <v>1.0094601150677969</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-4.6606702110093785</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.6606707323774348</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>-13.982010633028136</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-13.982012197132304</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F8">
-        <f>C8*C8</f>
-        <v>21.721846815790204</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21.721851675639613</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8">
-        <f>SUMIF(B6:B12,"&gt;1",D6:D12)</f>
-        <v>-148.59011951806866</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",D6:D12)</f>
+        <v>-148.59012792390041</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="M8">
-        <f>1-SUM(K15:K21)/SUM(L15:L21)</f>
-        <v>0.36669166474710213</v>
+        <f ca="1">1-SUM(K15:K21)/SUM(L15:L21)</f>
+        <v>0.36669168214255288</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B9">
-        <f>Data!B5</f>
-        <v>1.0095429499999999</v>
+        <f ca="1">Data!B29</f>
+        <v>1.0095429539283498</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-4.6519526170032757</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.6519522053539371</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>-18.607810468013103</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-18.607808821415748</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F9">
-        <f>C9*C9</f>
-        <v>21.640663150843626</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21.64065932089736</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9">
-        <f>SUMIF(B6:B12,"&gt;1",E6:E12)</f>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",E6:E12)</f>
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B10">
-        <f>Data!B6</f>
-        <v>1.00347944</v>
+        <f ca="1">Data!B30</f>
+        <v>1.0034794418832607</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-5.6608839176849219</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.6608833764311148</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>-28.304419588424608</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-28.304416882155575</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F10">
-        <f>C10*C10</f>
-        <v>32.045606729503788</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32.045600601554142</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10">
-        <f>SUMIF(B6:B12,"&gt;1",F6:F12)</f>
-        <v>166.19773962885185</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",F6:F12)</f>
+        <v>166.19775672853012</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B11">
-        <f>Data!B7</f>
-        <v>1.0033519900000001</v>
+        <f ca="1">Data!B31</f>
+        <v>1.0033519863589664</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-5.698201079660282</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.6982021658913489</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>-34.18920647796169</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-34.189212995348093</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F11">
-        <f>C11*C11</f>
-        <v>32.469495544241603</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32.469507923368859</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11">
-        <f>COUNTIF(B6:B12,"&gt;1")</f>
+        <f ca="1">COUNTIF(B6:B12,"&gt;1")</f>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B12">
-        <f>Data!B8</f>
-        <v>1.0019116400000001</v>
+        <f ca="1">Data!B32</f>
+        <v>1.0019116388933691</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-6.259793766599457</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.2597943454905298</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>-43.818556366196198</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-43.818560418433705</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="F12">
-        <f>C12*C12</f>
-        <v>39.185018000357417</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39.185025247835213</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1620,128 +2549,128 @@
     </row>
     <row r="15" spans="1:16">
       <c r="H15">
-        <f>$M$7+$M$6*A6</f>
-        <v>-2.6366908448002082</v>
+        <f t="shared" ref="H15:H21" ca="1" si="4">$M$7+$M$6*A6</f>
+        <v>-2.6366908317227322</v>
       </c>
       <c r="I15" s="2">
-        <f>1+$P$7/EXP($P$6*A6)</f>
-        <v>1.0715978062250262</v>
+        <f t="shared" ref="I15:I21" ca="1" si="5">1+$P$7/EXP($P$6*A6)</f>
+        <v>1.0715978071613448</v>
       </c>
       <c r="K15">
-        <f>(B6-I15)^2</f>
-        <v>3.0746294685218785E-2</v>
+        <f t="shared" ref="K15:K20" ca="1" si="6">(B6-I15)^2</f>
+        <v>3.0746293120920747E-2</v>
       </c>
       <c r="L15">
-        <f>(B6-AVERAGE($B$6:$B$12))^2</f>
-        <v>4.2205051240142351E-2</v>
+        <f t="shared" ref="L15:L21" ca="1" si="7">(B6-AVERAGE($B$6:$B$12))^2</f>
+        <v>4.2205050510043439E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="H16">
-        <f>$M$7+$M$6*A7</f>
-        <v>-3.3042156292971976</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.3042156945411594</v>
       </c>
       <c r="I16" s="2">
-        <f>1+$P$7/EXP($P$6*A7)</f>
-        <v>1.0367280089152831</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0367280065190023</v>
       </c>
       <c r="K16">
-        <f>(B7-I16)^2</f>
-        <v>4.3600734572460999E-4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.3600744773375077E-4</v>
       </c>
       <c r="L16">
-        <f>(B7-AVERAGE($B$6:$B$12))^2</f>
-        <v>6.5833912193440601E-4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5833928058281889E-4</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="H17">
-        <f>$M$7+$M$6*A8</f>
-        <v>-3.971740413794187</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.9717405573595865</v>
       </c>
       <c r="I17">
-        <f>1+$P$7/EXP($P$6*A8)</f>
-        <v>1.0188406141193975</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0188406114145374</v>
       </c>
       <c r="K17">
-        <f>(B8-I17)^2</f>
-        <v>8.799366992405229E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.7993711711212638E-5</v>
       </c>
       <c r="L17">
-        <f>(B8-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.0268961248484062E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0268963289668503E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="H18">
-        <f>$M$7+$M$6*A9</f>
-        <v>-4.6392651982911763</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.6392654201780141</v>
       </c>
       <c r="I18">
-        <f>1+$P$7/EXP($P$6*A9)</f>
-        <v>1.009664796728154</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.009664794583663</v>
       </c>
       <c r="K18">
-        <f>(B9-I18)^2</f>
-        <v>1.4846625161852713E-8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4845145287144354E-8</v>
       </c>
       <c r="L18">
-        <f>(B9-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.0215943745121075E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.021594011694073E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="H19">
-        <f>$M$7+$M$6*A10</f>
-        <v>-5.3067899827881657</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.3067902829964408</v>
       </c>
       <c r="I19">
-        <f>1+$P$7/EXP($P$6*A10)</f>
-        <v>1.0049578158760955</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0049578143877183</v>
       </c>
       <c r="K19">
-        <f>(B10-I19)^2</f>
-        <v>2.1855952310209899E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.1855852619362142E-6</v>
       </c>
       <c r="L19">
-        <f>(B10-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4459690708100044E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4459687946953021E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="H20">
-        <f>$M$7+$M$6*A11</f>
-        <v>-5.9743147672851551</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.9743151458148684</v>
       </c>
       <c r="I20">
-        <f>1+$P$7/EXP($P$6*A11)</f>
-        <v>1.0025432442039532</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.00254324324126</v>
       </c>
       <c r="K20">
-        <f>(B11-I20)^2</f>
-        <v>6.5406976262343554E-7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.540654304374693E-7</v>
       </c>
       <c r="L20">
-        <f>(B11-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4556781162224982E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.455678260723015E-3</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="H21">
-        <f>$M$7+$M$6*A12</f>
-        <v>-6.6418395517821445</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.6418400086332952</v>
       </c>
       <c r="I21">
-        <f>1+$P$7/EXP($P$6*A12)</f>
-        <v>1.0013046251096431</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0013046245136239</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K16:K21" si="3">(B12-I21)^2</f>
-        <v>3.6846707711508631E-7</v>
+        <f ca="1">(B12-I21)^2</f>
+        <v>3.6846645721744572E-7</v>
       </c>
       <c r="L21">
-        <f>(B12-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.5676610796899963E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5676610289528763E-3</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1771,260 +2700,260 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B25">
-        <f>Data!C2</f>
-        <v>1.19471971</v>
+        <f ca="1">Data!C26</f>
+        <v>1.1947197078608807</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:C31" si="4">LN(B25-1)</f>
-        <v>-1.6361941390620243</v>
+        <f t="shared" ref="C25:C31" ca="1" si="8">LN(B25-1)</f>
+        <v>-1.6361941500476576</v>
       </c>
       <c r="D25">
-        <f>C25*A25</f>
-        <v>-1.6361941390620243</v>
+        <f t="shared" ref="D25:D30" ca="1" si="9">C25*A25</f>
+        <v>-1.6361941500476576</v>
       </c>
       <c r="E25">
-        <f>A25*A25</f>
+        <f t="shared" ref="E25:E30" si="10">A25*A25</f>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>C25*C25</f>
-        <v>2.6771312607009188</v>
+        <f t="shared" ref="F25:F31" ca="1" si="11">C25*C25</f>
+        <v>2.6771312966501766</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
       </c>
       <c r="J25">
-        <f>SUMIF(B25:B31,"&gt;1",A25:A31)</f>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",A25:A31)</f>
         <v>16</v>
       </c>
       <c r="L25" t="s">
         <v>10</v>
       </c>
       <c r="M25">
-        <f>(J30*J27-J25*J26)/(J30*J28-J25^2)</f>
-        <v>-1.2125960529063309</v>
+        <f ca="1">(J30*J27-J25*J26)/(J30*J28-J25^2)</f>
+        <v>-1.2125948228177432</v>
       </c>
       <c r="O25" t="s">
         <v>19</v>
       </c>
       <c r="P25">
-        <f>-M25</f>
-        <v>1.2125960529063309</v>
+        <f ca="1">-M25</f>
+        <v>1.2125948228177432</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B26">
-        <f>Data!C3</f>
-        <v>0.99540618999999997</v>
+        <f ca="1">Data!C27</f>
+        <v>0.99540618622168753</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="D26" t="e">
-        <f>C26*A26</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="E26">
-        <f>A26*A26</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="F26" t="e">
-        <f>C26*C26</f>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26">
-        <f>SUMIF(B25:B31,"&gt;1",C25:C31)</f>
-        <v>-20.052536994631616</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",C25:C31)</f>
+        <v>-20.052528137786531</v>
       </c>
       <c r="L26" t="s">
         <v>11</v>
       </c>
       <c r="M26">
-        <f>(J26*J28-J25*J27)/(J30*J28-J25^2)</f>
-        <v>-0.16275003703258253</v>
+        <f ca="1">(J26*J28-J25*J27)/(J30*J28-J25^2)</f>
+        <v>-0.16275274317566105</v>
       </c>
       <c r="O26" t="s">
         <v>18</v>
       </c>
       <c r="P26">
-        <f>EXP(M26)</f>
-        <v>0.84980358129320932</v>
+        <f ca="1">EXP(M26)</f>
+        <v>0.84980128160624135</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B27">
-        <f>Data!C4</f>
-        <v>0.99507566000000003</v>
+        <f ca="1">Data!C28</f>
+        <v>0.99507565894700301</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="D27" t="e">
-        <f>C27*A27</f>
+        <f t="shared" ca="1" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="E27">
-        <f>A27*A27</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="F27" t="e">
-        <f>C27*C27</f>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
       </c>
       <c r="J27">
-        <f>SUMIF(B25:B31,"&gt;1",D25:D31)</f>
-        <v>-97.186492719215096</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",D25:D31)</f>
+        <v>-97.186440070594529</v>
       </c>
       <c r="L27" t="s">
         <v>27</v>
       </c>
       <c r="M27">
-        <f>1-SUM(K34:K40)/SUM(L34:L40)</f>
-        <v>0.69408496165459344</v>
+        <f ca="1">1-SUM(K34:K40)/SUM(L34:L40)</f>
+        <v>0.69408622617531424</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B28">
-        <f>Data!C5</f>
-        <v>1.0101815999999999</v>
+        <f ca="1">Data!C29</f>
+        <v>1.0101816013402618</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
-        <v>-4.5871731092864465</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-4.587172977650769</v>
       </c>
       <c r="D28">
-        <f>C28*A28</f>
-        <v>-18.348692437145786</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-18.348691910603076</v>
       </c>
       <c r="E28">
-        <f>A28*A28</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="F28">
-        <f>C28*C28</f>
-        <v>21.042157134560686</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>21.042155926889421</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
       <c r="J28">
-        <f>SUMIF(B25:B31,"&gt;1",E25:E31)</f>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",E25:E31)</f>
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B29">
-        <f>Data!C6</f>
-        <v>1.0031091299999999</v>
+        <f ca="1">Data!C30</f>
+        <v>1.0031091308833249</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
-        <v>-5.7734123346916046</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-5.773412050584847</v>
       </c>
       <c r="D29">
-        <f>C29*A29</f>
-        <v>-28.867061673458025</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-28.867060252924233</v>
       </c>
       <c r="E29">
-        <f>A29*A29</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F29">
-        <f>C29*C29</f>
-        <v>33.332289986369162</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>33.332286705838328</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29">
-        <f>SUMIF(B25:B31,"&gt;1",F25:F31)</f>
-        <v>121.94680585604284</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",F25:F31)</f>
+        <v>121.94666522791576</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B30">
-        <f>Data!C7</f>
-        <v>1.00031727</v>
+        <f ca="1">Data!C31</f>
+        <v>1.0003172726816054</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
-        <v>-8.0557574115915429</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-8.0557489595032585</v>
       </c>
       <c r="D30">
-        <f>C30*A30</f>
-        <v>-48.334544469549257</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-48.334493757019551</v>
       </c>
       <c r="E30">
-        <f>A30*A30</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F30">
-        <f>C30*C30</f>
-        <v>64.895227474412081</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>64.895091298537835</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
       <c r="J30">
-        <f>COUNTIF(B25:B31,"&gt;1")</f>
+        <f ca="1">COUNTIF(B25:B31,"&gt;1")</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B31">
-        <f>Data!C8</f>
-        <v>0.98794674000000005</v>
+        <f ca="1">Data!C32</f>
+        <v>0.98794673522373588</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="D31" t="e">
-        <f t="shared" ref="D26:D31" si="5">C31*A31</f>
+        <f ca="1">C31*A31</f>
         <v>#NUM!</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E26:E31" si="6">A31*A31</f>
+        <f>A31*A31</f>
         <v>49</v>
       </c>
       <c r="F31" t="e">
-        <f>C31*C31</f>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -2044,133 +2973,134 @@
     </row>
     <row r="34" spans="8:12">
       <c r="H34">
-        <f>$M$26+$M$25*A25</f>
-        <v>-1.3753460899389134</v>
+        <f ca="1">$M$26+$M$25*A25</f>
+        <v>-1.3753475659934042</v>
       </c>
       <c r="I34">
-        <f>1+$P$26/EXP($P$25*A25)</f>
-        <v>1.2527521057050746</v>
+        <f t="shared" ref="I34:I40" ca="1" si="12">1+$P$26/EXP($P$25*A25)</f>
+        <v>1.252751732629469</v>
       </c>
       <c r="K34">
-        <f>(B25-I34)^2</f>
-        <v>3.3677589512703574E-3</v>
+        <f t="shared" ref="K34:K39" ca="1" si="13">(B25-I34)^2</f>
+        <v>3.3677158987420546E-3</v>
       </c>
       <c r="L34">
-        <f>(B25-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.3474643174496879E-2</v>
+        <f t="shared" ref="L34:L40" ca="1" si="14">(B25-AVERAGE($B$6:$B$12))^2</f>
+        <v>2.3474643054448463E-2</v>
       </c>
     </row>
     <row r="35" spans="8:12">
       <c r="H35">
-        <f t="shared" ref="H35:H40" si="7">$M$26+$M$25*A26</f>
-        <v>-2.5879421428452445</v>
+        <f t="shared" ref="H35:H40" ca="1" si="15">$M$26+$M$25*A26</f>
+        <v>-2.5879423888111477</v>
       </c>
       <c r="I35">
-        <f>1+$P$26/EXP($P$25*A26)</f>
-        <v>1.075174579567119</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.075174561076738</v>
       </c>
       <c r="K35">
-        <f>(B26-I35)^2</f>
-        <v>6.3629959741316701E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6.3629936270158541E-3</v>
       </c>
       <c r="L35">
-        <f>(B26-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.1251316307225082E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2.1251318179735064E-3</v>
       </c>
     </row>
     <row r="36" spans="8:12">
       <c r="H36">
-        <f t="shared" si="7"/>
-        <v>-3.8005381957515754</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-3.8005372116288911</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I35:I40" si="8">1+$P$26/EXP($P$25*A27)</f>
-        <v>1.0223587352411112</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0223587572448607</v>
       </c>
       <c r="K36">
-        <f>(B27-I36)^2</f>
-        <v>7.4436619461213369E-4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7.4436745273056507E-4</v>
       </c>
       <c r="L36">
-        <f>(B27-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.1557151849024027E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2.1557151204249373E-3</v>
       </c>
     </row>
     <row r="37" spans="8:12">
       <c r="H37">
-        <f t="shared" si="7"/>
-        <v>-5.0131342486579058</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-5.0131320344466337</v>
       </c>
       <c r="I37">
-        <f t="shared" si="8"/>
-        <v>1.0066500277681736</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0066500424927562</v>
       </c>
       <c r="K37">
-        <f>(B28-I37)^2</f>
-        <v>1.2472002428606726E-5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2471907893394771E-5</v>
       </c>
       <c r="L37">
-        <f>(B28-AVERAGE($B$6:$B$12))^2</f>
-        <v>9.8117668758760973E-4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9.8117649415631705E-4</v>
       </c>
     </row>
     <row r="38" spans="8:12">
       <c r="H38">
-        <f t="shared" si="7"/>
-        <v>-6.2257303015642371</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-6.2257268572643767</v>
       </c>
       <c r="I38">
-        <f t="shared" si="8"/>
-        <v>1.0019778788397729</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0019778856521924</v>
       </c>
       <c r="K38">
-        <f>(B29-I38)^2</f>
-        <v>1.279729187515055E-6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2797157729600346E-6</v>
       </c>
       <c r="L38">
-        <f>(B29-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4742689423641118E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.4742687403479797E-3</v>
       </c>
     </row>
     <row r="39" spans="8:12">
       <c r="H39">
-        <f t="shared" si="7"/>
-        <v>-7.4383263544705676</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-7.4383216800821206</v>
       </c>
       <c r="I39">
-        <f t="shared" si="8"/>
-        <v>1.0005882689277696</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0005882716775736</v>
       </c>
       <c r="K39">
-        <f>(B30-I39)^2</f>
-        <v>7.3440418852275944E-8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7.3440455815752733E-8</v>
       </c>
       <c r="L39">
-        <f>(B30-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.6964571103249017E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.6964567454844132E-3</v>
       </c>
     </row>
     <row r="40" spans="8:12">
       <c r="H40">
-        <f t="shared" si="7"/>
-        <v>-8.650922407376898</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>-8.6509165028998627</v>
       </c>
       <c r="I40">
-        <f t="shared" si="8"/>
-        <v>1.0001749653843401</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0001749664174224</v>
       </c>
       <c r="K40">
-        <f t="shared" ref="K40" si="9">(B31-I40)^2</f>
-        <v>1.4952949605021951E-4</v>
+        <f ca="1">(B31-I40)^2</f>
+        <v>1.4952963812624867E-4</v>
       </c>
       <c r="L40">
-        <f>(B31-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.8685236339600012E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2.8685239584084771E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2179,7 +3109,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2231,265 +3161,265 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B6">
-        <f>Data!B2</f>
-        <v>1.2469440199999999</v>
+        <f ca="1">Data!B26</f>
+        <v>1.2469440164757202</v>
       </c>
       <c r="C6">
-        <f>LN(LN(B6))</f>
-        <v>-1.5109701142939953</v>
+        <f ca="1">LN(LN(B6))</f>
+        <v>-1.5109701271004643</v>
       </c>
       <c r="D6">
-        <f>C6*A6</f>
-        <v>-1.5109701142939953</v>
+        <f t="shared" ref="D6:D12" ca="1" si="0">C6*A6</f>
+        <v>-1.5109701271004643</v>
       </c>
       <c r="E6">
-        <f>A6*A6</f>
+        <f t="shared" ref="E6:E12" si="1">A6*A6</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>C6*C6</f>
-        <v>2.2830306862896093</v>
+        <f t="shared" ref="F6:F12" ca="1" si="2">C6*C6</f>
+        <v>2.283030724989993</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6">
-        <f>SUMIF(B6:B12,"&gt;1",A6:A12)</f>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",A6:A12)</f>
         <v>28</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6">
-        <f>(J11*J8-J6*J7)/(J11*J9-J6^2)</f>
-        <v>-0.65503782358376317</v>
+        <f ca="1">(J11*J8-J6*J7)/(J11*J9-J6^2)</f>
+        <v>-0.65503790216480207</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="2">
-        <f>EXP(M6)</f>
-        <v>0.51942241579824211</v>
+        <f ca="1">EXP(M6)</f>
+        <v>0.51942237498149069</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B7">
-        <f>Data!B3</f>
-        <v>1.0158472199999999</v>
+        <f ca="1">Data!B27</f>
+        <v>1.015847215161064</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C12" si="0">LN(LN(B7))</f>
-        <v>-4.1526329707423866</v>
+        <f t="shared" ref="C7:C12" ca="1" si="3">LN(LN(B7))</f>
+        <v>-4.1526332737036658</v>
       </c>
       <c r="D7">
-        <f>C7*A7</f>
-        <v>-8.3052659414847732</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.3052665474073315</v>
       </c>
       <c r="E7">
-        <f>A7*A7</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F7">
-        <f>C7*C7</f>
-        <v>17.24436058969674</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17.244363105870825</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7">
-        <f>SUMIF(B6:B12,"&gt;1",C6:C12)</f>
-        <v>-32.608934729516164</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",C6:C12)</f>
+        <v>-32.608936276943851</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7">
-        <f>(J7*J9-J6*J8)/(J11*J9-J6^2)</f>
-        <v>-2.0382679527386856</v>
+        <f ca="1">(J7*J9-J6*J8)/(J11*J9-J6^2)</f>
+        <v>-2.0382678594756278</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="2">
-        <f>EXP(EXP(M7))</f>
-        <v>1.1391178213386193</v>
+        <f ca="1">EXP(EXP(M7))</f>
+        <v>1.1391178351765068</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B8">
-        <f>Data!B4</f>
-        <v>1.00946012</v>
+        <f ca="1">Data!B28</f>
+        <v>1.0094601150677969</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-4.6653817315878277</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.6653822505090599</v>
       </c>
       <c r="D8">
-        <f>C8*A8</f>
-        <v>-13.996145194763482</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.99614675152718</v>
       </c>
       <c r="E8">
-        <f>A8*A8</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F8">
-        <f>C8*C8</f>
-        <v>21.765786701433438</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21.76579154336498</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8">
-        <f>SUMIF(B6:B12,"&gt;1",D6:D12)</f>
-        <v>-148.77679797841003</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",D6:D12)</f>
+        <v>-148.77680636838986</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="M8">
-        <f>1-SUM(K15:K21)/SUM(L15:L21)</f>
-        <v>0.35623162195188829</v>
+        <f ca="1">1-SUM(K15:K21)/SUM(L15:L21)</f>
+        <v>0.35623164036554356</v>
       </c>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B9">
-        <f>Data!B5</f>
-        <v>1.0095429499999999</v>
+        <f ca="1">Data!B29</f>
+        <v>1.0095429539283498</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-4.6567052274396508</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.6567048177389996</v>
       </c>
       <c r="D9">
-        <f>C9*A9</f>
-        <v>-18.626820909758603</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-18.626819270955998</v>
       </c>
       <c r="E9">
-        <f>A9*A9</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F9">
-        <f>C9*C9</f>
-        <v>21.684903575263771</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21.684899759553609</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9">
-        <f>SUMIF(B6:B12,"&gt;1",E6:E12)</f>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",E6:E12)</f>
         <v>140</v>
       </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B10">
-        <f>Data!B6</f>
-        <v>1.00347944</v>
+        <f ca="1">Data!B30</f>
+        <v>1.0034794418832607</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-5.6626211207495976</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.662620580434699</v>
       </c>
       <c r="D10">
-        <f>C10*A10</f>
-        <v>-28.313105603747989</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-28.313102902173494</v>
       </c>
       <c r="E10">
-        <f>A10*A10</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F10">
-        <f>C10*C10</f>
-        <v>32.065277957159431</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.065271837962605</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10">
-        <f>SUMIF(B6:B12,"&gt;1",F6:F12)</f>
-        <v>166.72890740916722</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",F6:F12)</f>
+        <v>166.72892447480007</v>
       </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B11">
-        <f>Data!B7</f>
-        <v>1.0033519900000001</v>
+        <f ca="1">Data!B31</f>
+        <v>1.0033519863589664</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-5.6998747385577424</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.6998758229733628</v>
       </c>
       <c r="D11">
-        <f>C11*A11</f>
-        <v>-34.199248431346454</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-34.19925493784018</v>
       </c>
       <c r="E11">
-        <f>A11*A11</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F11">
-        <f>C11*C11</f>
-        <v>32.488572035248694</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.488584397316274</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11">
-        <f>COUNTIF(B6:B12,"&gt;1")</f>
+        <f ca="1">COUNTIF(B6:B12,"&gt;1")</f>
         <v>7</v>
       </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B12">
-        <f>Data!B8</f>
-        <v>1.0019116400000001</v>
+        <f ca="1">Data!B32</f>
+        <v>1.0019116388933691</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-6.2607488261449644</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.260749404483601</v>
       </c>
       <c r="D12">
-        <f>C12*A12</f>
-        <v>-43.825241783014754</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-43.825245831385203</v>
       </c>
       <c r="E12">
-        <f>A12*A12</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="F12">
-        <f>C12*C12</f>
-        <v>39.196975864075547</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>39.196983105741765</v>
       </c>
       <c r="P12" s="2"/>
     </row>
@@ -2513,134 +3443,134 @@
     </row>
     <row r="15" spans="1:16">
       <c r="H15">
-        <f>$M$7+$M$6*A6</f>
-        <v>-2.6933057763224486</v>
+        <f t="shared" ref="H15:H21" ca="1" si="4">$M$7+$M$6*A6</f>
+        <v>-2.6933057616404299</v>
       </c>
       <c r="I15" s="2">
-        <f>$P$7^($P$6^A6)</f>
-        <v>1.0699981405494485</v>
+        <f t="shared" ref="I15:I21" ca="1" si="5">$P$7^($P$6^A6)</f>
+        <v>1.0699981416123205</v>
       </c>
       <c r="K15">
-        <f>(B6-I15)^2</f>
-        <v>3.1309844254529068E-2</v>
+        <f t="shared" ref="K15:K20" ca="1" si="6">(B6-I15)^2</f>
+        <v>3.1309842631173881E-2</v>
       </c>
       <c r="L15">
-        <f>(B6-AVERAGE($B$6:$B$12))^2</f>
-        <v>4.2205051240142351E-2</v>
+        <f t="shared" ref="L15:L21" ca="1" si="7">(B6-AVERAGE($B$6:$B$12))^2</f>
+        <v>4.2205050510043439E-2</v>
       </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16">
       <c r="H16">
-        <f>$M$7+$M$6*A7</f>
-        <v>-3.3483435999062117</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.348343663805232</v>
       </c>
       <c r="I16">
-        <f>$P$7^($P$6^A7)</f>
-        <v>1.0357673116797756</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0357673093538853</v>
       </c>
       <c r="K16">
-        <f>(B7-I16)^2</f>
-        <v>3.9681005253066942E-4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9681015265087121E-4</v>
       </c>
       <c r="L16">
-        <f>(B7-AVERAGE($B$6:$B$12))^2</f>
-        <v>6.5833912193440601E-4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5833928058281889E-4</v>
       </c>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
       <c r="H17">
-        <f>$M$7+$M$6*A8</f>
-        <v>-4.0033814234899747</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0033815659700345</v>
       </c>
       <c r="I17" s="2">
-        <f>$P$7^($P$6^A8)</f>
-        <v>1.0184214296924929</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0184214270437788</v>
       </c>
       <c r="K17">
-        <f>(B8-I17)^2</f>
-        <v>8.0305071404768638E-5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8.0305112330877237E-5</v>
       </c>
       <c r="L17">
-        <f>(B8-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.0268961248484062E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0268963289668503E-3</v>
       </c>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
       <c r="H18">
-        <f>$M$7+$M$6*A9</f>
-        <v>-4.6584192470737378</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.6584194681348361</v>
       </c>
       <c r="I18">
-        <f>$P$7^($P$6^A9)</f>
-        <v>1.0095265296074525</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.009526527491508</v>
       </c>
       <c r="K18">
-        <f>(B9-I18)^2</f>
-        <v>2.6962929141254771E-10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.6982782731942816E-10</v>
       </c>
       <c r="L18">
-        <f>(B9-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.0215943745121075E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.021594011694073E-3</v>
       </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16">
       <c r="H19">
-        <f>$M$7+$M$6*A10</f>
-        <v>-5.3134570706575008</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.3134573702996377</v>
       </c>
       <c r="I19">
-        <f>$P$7^($P$6^A10)</f>
-        <v>1.0049370187382149</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0049370172552305</v>
       </c>
       <c r="K19">
-        <f>(B10-I19)^2</f>
-        <v>2.1245357780962815E-6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.1245259649731577E-6</v>
       </c>
       <c r="L19">
-        <f>(B10-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4459690708100044E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.4459687946953021E-3</v>
       </c>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
       <c r="H20">
-        <f>$M$7+$M$6*A11</f>
-        <v>-5.9684948942412648</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.9684952724644402</v>
       </c>
       <c r="I20">
-        <f>$P$7^($P$6^A11)</f>
-        <v>1.0025613634177026</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0025613624476961</v>
       </c>
       <c r="K20">
-        <f>(B11-I20)^2</f>
-        <v>6.2509039263534484E-7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2508616907230259E-7</v>
       </c>
       <c r="L20">
-        <f>(B11-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4556781162224982E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.455678260723015E-3</v>
       </c>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
       <c r="H21">
-        <f>$M$7+$M$6*A12</f>
-        <v>-6.6235327178250278</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.6235331746292427</v>
       </c>
       <c r="I21">
-        <f>$P$7^($P$6^A12)</f>
-        <v>1.0013296117722135</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0013296111644379</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21" si="1">(B12-I21)^2</f>
-        <v>3.3875685794045118E-7</v>
+        <f ca="1">(B12-I21)^2</f>
+        <v>3.3875627724484964E-7</v>
       </c>
       <c r="L21">
-        <f>(B12-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.5676610796899963E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5676610289528763E-3</v>
       </c>
       <c r="P21" s="2"/>
     </row>
@@ -2676,260 +3606,260 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B25">
-        <f>Data!C2</f>
-        <v>1.19471971</v>
+        <f ca="1">Data!C26</f>
+        <v>1.1947197078608807</v>
       </c>
       <c r="C25">
-        <f>LN(LN(B25))</f>
-        <v>-1.7264684499540301</v>
+        <f ca="1">LN(LN(B25))</f>
+        <v>-1.726468460017893</v>
       </c>
       <c r="D25">
-        <f>C25*A25</f>
-        <v>-1.7264684499540301</v>
+        <f t="shared" ref="D25:D31" ca="1" si="8">C25*A25</f>
+        <v>-1.726468460017893</v>
       </c>
       <c r="E25">
-        <f>A25*A25</f>
+        <f t="shared" ref="E25:E31" si="9">A25*A25</f>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>C25*C25</f>
-        <v>2.9806933086866714</v>
+        <f t="shared" ref="F25:F31" ca="1" si="10">C25*C25</f>
+        <v>2.9806933434365552</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
       </c>
       <c r="J25">
-        <f>SUMIF(B25:B31,"&gt;1",A25:A31)</f>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",A25:A31)</f>
         <v>16</v>
       </c>
       <c r="L25" t="s">
         <v>10</v>
       </c>
       <c r="M25">
-        <f>(J30*J27-J25*J26)/(J30*J28-J25^2)</f>
-        <v>-1.1933851136381384</v>
+        <f ca="1">(J30*J27-J25*J26)/(J30*J28-J25^2)</f>
+        <v>-1.1933838839700326</v>
       </c>
       <c r="O25" t="s">
         <v>19</v>
       </c>
       <c r="P25" s="2">
-        <f>EXP(M25)</f>
-        <v>0.30319318158644509</v>
+        <f ca="1">EXP(M25)</f>
+        <v>0.30319355441365964</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B26">
-        <f>Data!C3</f>
-        <v>0.99540618999999997</v>
+        <f ca="1">Data!C27</f>
+        <v>0.99540618622168753</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" ref="C26:C31" si="2">LN(LN(B26))</f>
+        <f t="shared" ref="C26:C31" ca="1" si="11">LN(LN(B26))</f>
         <v>#NUM!</v>
       </c>
       <c r="D26" t="e">
-        <f>C26*A26</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="E26">
-        <f>A26*A26</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F26" t="e">
-        <f>C26*C26</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26">
-        <f>SUMIF(B25:B31,"&gt;1",C25:C31)</f>
-        <v>-20.149591808546326</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",C25:C31)</f>
+        <v>-20.149582953224936</v>
       </c>
       <c r="L26" t="s">
         <v>11</v>
       </c>
       <c r="M26">
-        <f>(J26*J28-J25*J27)/(J30*J28-J25^2)</f>
-        <v>-0.26385749758402915</v>
+        <f ca="1">(J26*J28-J25*J27)/(J30*J28-J25^2)</f>
+        <v>-0.26386020242610392</v>
       </c>
       <c r="O26" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="2">
-        <f>EXP(EXP(M26))</f>
-        <v>2.1556299166208683</v>
+        <f ca="1">EXP(EXP(M26))</f>
+        <v>2.1556254382173532</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B27">
-        <f>Data!C4</f>
-        <v>0.99507566000000003</v>
+        <f ca="1">Data!C28</f>
+        <v>0.99507565894700301</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="D27" t="e">
-        <f>C27*A27</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="E27">
-        <f>A27*A27</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="F27" t="e">
-        <f>C27*C27</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
       </c>
       <c r="J27">
-        <f>SUMIF(B25:B31,"&gt;1",D25:D31)</f>
-        <v>-97.305758825119241</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",D25:D31)</f>
+        <v>-97.305706188480201</v>
       </c>
       <c r="L27" t="s">
         <v>27</v>
       </c>
       <c r="M27">
-        <f>1-SUM(K34:K40)/SUM(L34:L40)</f>
-        <v>0.67009205589100795</v>
+        <f ca="1">1-SUM(K34:K40)/SUM(L34:L40)</f>
+        <v>0.67009375779813007</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B28">
-        <f>Data!C5</f>
-        <v>1.0101815999999999</v>
+        <f ca="1">Data!C29</f>
+        <v>1.0101816013402618</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>-4.5922424434209104</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-4.5922423124497298</v>
       </c>
       <c r="D28">
-        <f>C28*A28</f>
-        <v>-18.368969773683641</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-18.368969249798919</v>
       </c>
       <c r="E28">
-        <f>A28*A28</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="F28">
-        <f>C28*C28</f>
-        <v>21.088690659156452</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>21.088689456253643</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
       <c r="J28">
-        <f>SUMIF(B25:B31,"&gt;1",E25:E31)</f>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",E25:E31)</f>
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B29">
-        <f>Data!C6</f>
-        <v>1.0031091299999999</v>
+        <f ca="1">Data!C30</f>
+        <v>1.0031091308833249</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>-5.7749648895467374</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-5.7749646058805011</v>
       </c>
       <c r="D29">
-        <f>C29*A29</f>
-        <v>-28.874824447733687</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-28.874823029402506</v>
       </c>
       <c r="E29">
-        <f>A29*A29</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="F29">
-        <f>C29*C29</f>
-        <v>33.35021947549756</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>33.350216199172529</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29">
-        <f>SUMIF(B25:B31,"&gt;1",F25:F31)</f>
-        <v>122.3173864552567</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",F25:F31)</f>
+        <v>122.31724585382032</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B30">
-        <f>Data!C7</f>
-        <v>1.00031727</v>
+        <f ca="1">Data!C31</f>
+        <v>1.0003172726816054</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>-8.0559160256246471</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-8.0559075748768123</v>
       </c>
       <c r="D30">
-        <f>C30*A30</f>
-        <v>-48.335496153747883</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-48.335445449260874</v>
       </c>
       <c r="E30">
-        <f>A30*A30</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="F30">
-        <f>C30*C30</f>
-        <v>64.897783011916005</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>64.8976468549576</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
       <c r="J30">
-        <f>COUNTIF(B25:B31,"&gt;1")</f>
+        <f ca="1">COUNTIF(B25:B31,"&gt;1")</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B31">
-        <f>Data!C8</f>
-        <v>0.98794674000000005</v>
+        <f ca="1">Data!C32</f>
+        <v>0.98794673522373588</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="D31" t="e">
-        <f>C31*A31</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="E31">
-        <f>A31*A31</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="F31" t="e">
-        <f>C31*C31</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -2949,133 +3879,134 @@
     </row>
     <row r="34" spans="8:12">
       <c r="H34">
-        <f>$M$26+$M$25*A25</f>
-        <v>-1.4572426112221675</v>
+        <f ca="1">$M$26+$M$25*A25</f>
+        <v>-1.4572440863961365</v>
       </c>
       <c r="I34">
-        <f>$P$26^($P$25^A25)</f>
-        <v>1.262226877497391</v>
+        <f ca="1">$P$26^($P$25^A25)</f>
+        <v>1.2622264438788497</v>
       </c>
       <c r="K34">
-        <f>(B25-I34)^2</f>
-        <v>4.5572176635208109E-3</v>
+        <f t="shared" ref="K34:K39" ca="1" si="12">(B25-I34)^2</f>
+        <v>4.5571594077997643E-3</v>
       </c>
       <c r="L34">
-        <f>(B25-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.3474643174496879E-2</v>
+        <f t="shared" ref="L34:L40" ca="1" si="13">(B25-AVERAGE($B$6:$B$12))^2</f>
+        <v>2.3474643054448463E-2</v>
       </c>
     </row>
     <row r="35" spans="8:12">
       <c r="H35">
-        <f t="shared" ref="H35:H40" si="3">$M$26+$M$25*A26</f>
-        <v>-2.6506277248603061</v>
+        <f t="shared" ref="H35:H40" ca="1" si="14">$M$26+$M$25*A26</f>
+        <v>-2.6506279703661693</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I40" si="4">$P$26^($P$25^A26)</f>
-        <v>1.073159259831463</v>
+        <f t="shared" ref="I35:I40" ca="1" si="15">$P$26^($P$25^A26)</f>
+        <v>1.0731592412288911</v>
       </c>
       <c r="K35">
-        <f>(B26-I35)^2</f>
-        <v>6.0455398682163642E-3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6.045537562953218E-3</v>
       </c>
       <c r="L35">
-        <f>(B26-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.1251316307225082E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1251318179735064E-3</v>
       </c>
     </row>
     <row r="36" spans="8:12">
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>-3.8440128384984447</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.8440118543362018</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
-        <v>1.0216383087578653</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0216383302822389</v>
       </c>
       <c r="K36">
-        <f>(B27-I36)^2</f>
-        <v>7.0557430903372259E-4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7.0557550846376464E-4</v>
       </c>
       <c r="L36">
-        <f>(B27-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.1557151849024027E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1557151204249373E-3</v>
       </c>
     </row>
     <row r="37" spans="8:12">
       <c r="H37">
-        <f t="shared" si="3"/>
-        <v>-5.0373979521365824</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.037395738306234</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
-        <v>1.006511724946155</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0065117394088601</v>
       </c>
       <c r="K37">
-        <f>(B28-I37)^2</f>
-        <v>1.346798291083283E-5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.3467886595551635E-5</v>
       </c>
       <c r="L37">
-        <f>(B28-AVERAGE($B$6:$B$12))^2</f>
-        <v>9.8117668758760973E-4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9.8117649415631705E-4</v>
       </c>
     </row>
     <row r="38" spans="8:12">
       <c r="H38">
-        <f t="shared" si="3"/>
-        <v>-6.2307830657747205</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.2307796222762661</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
-        <v>1.0019698478961909</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0019698546860474</v>
       </c>
       <c r="K38">
-        <f>(B29-I38)^2</f>
-        <v>1.297963712059417E-6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.2979502536830685E-6</v>
       </c>
       <c r="L38">
-        <f>(B29-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4742689423641118E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.4742687403479797E-3</v>
       </c>
     </row>
     <row r="39" spans="8:12">
       <c r="H39">
-        <f t="shared" si="3"/>
-        <v>-7.4241681794128596</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-7.4241635062462992</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
-        <v>1.0005968350170653</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0005968378070136</v>
       </c>
       <c r="K39">
-        <f>(B30-I39)^2</f>
-        <v>7.8156598766707649E-8</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7.8156659344483294E-8</v>
       </c>
       <c r="L39">
-        <f>(B30-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.6964571103249017E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6964567454844132E-3</v>
       </c>
     </row>
     <row r="40" spans="8:12">
       <c r="H40">
-        <f t="shared" si="3"/>
-        <v>-8.6175532930509977</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-8.6175473902163322</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
-        <v>1.0001809186924655</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.0001809197604983</v>
       </c>
       <c r="K40">
-        <f t="shared" ref="K40" si="5">(B31-I40)^2</f>
-        <v>1.4967512827917582E-4</v>
+        <f ca="1">(B31-I40)^2</f>
+        <v>1.4967527127955608E-4</v>
       </c>
       <c r="L40">
-        <f>(B31-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.8685236339600012E-3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2.8685239584084771E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -3083,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -3140,266 +4071,266 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B6">
-        <f>Data!B2</f>
-        <v>1.2469440199999999</v>
+        <f ca="1">Data!B26</f>
+        <v>1.2469440164757202</v>
       </c>
       <c r="C6">
-        <f>LN(LN(B6/(B6-1)))</f>
-        <v>0.48198739971580862</v>
+        <f ca="1">LN(LN(B6/(B6-1)))</f>
+        <v>0.48198740678387209</v>
       </c>
       <c r="D6">
-        <f>C6*A6</f>
-        <v>0.48198739971580862</v>
+        <f t="shared" ref="D6:D12" ca="1" si="0">C6*A6</f>
+        <v>0.48198740678387209</v>
       </c>
       <c r="E6">
-        <f>A6*A6</f>
+        <f t="shared" ref="E6:E12" si="1">A6*A6</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>C6*C6</f>
-        <v>0.23231185348480668</v>
+        <f t="shared" ref="F6:F12" ca="1" si="2">C6*C6</f>
+        <v>0.23231186029824177</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
       </c>
       <c r="J6">
-        <f>SUMIF(B6:B12,"&gt;1",A6:A12)</f>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",A6:A12)</f>
         <v>28</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6">
-        <f>(J11*J8-J6*J7)/(J11*J9-J6^2)</f>
-        <v>0.1743079637833834</v>
+        <f ca="1">(J11*J8-J6*J7)/(J11*J9-J6^2)</f>
+        <v>0.17430797396409772</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="2">
-        <f>EXP(M6)</f>
-        <v>1.1904221162740845</v>
+        <f ca="1">EXP(M6)</f>
+        <v>1.190422128393432</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B7">
-        <f>Data!B3</f>
-        <v>1.0158472199999999</v>
+        <f ca="1">Data!B27</f>
+        <v>1.015847215161064</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C12" si="0">LN(LN(B7/(B7-1)))</f>
-        <v>1.4256314502409466</v>
+        <f t="shared" ref="C7:C12" ca="1" si="3">LN(LN(B7/(B7-1)))</f>
+        <v>1.4256315224887366</v>
       </c>
       <c r="D7">
-        <f>C7*A7</f>
-        <v>2.8512629004818932</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8512630449774732</v>
       </c>
       <c r="E7">
-        <f>A7*A7</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F7">
-        <f>C7*C7</f>
-        <v>2.0324250319161048</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0324252379135532</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7">
-        <f>SUMIF(B6:B12,"&gt;1",C6:C12)</f>
-        <v>10.297506284143367</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",C6:C12)</f>
+        <v>10.297506573507089</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7">
-        <f>(J7*J9-J6*J8)/(J11*J9-J6^2)</f>
-        <v>0.77384047117266164</v>
+        <f ca="1">(J7*J9-J6*J8)/(J11*J9-J6^2)</f>
+        <v>0.77384047178747895</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="2">
-        <f>EXP(M7)</f>
-        <v>2.1680767216640171</v>
+        <f ca="1">EXP(M7)</f>
+        <v>2.1680767229969886</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B8">
-        <f>Data!B4</f>
-        <v>1.00946012</v>
+        <f ca="1">Data!B28</f>
+        <v>1.0094601150677969</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.5411774578703448</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5411775684640387</v>
       </c>
       <c r="D8">
-        <f>C8*A8</f>
-        <v>4.6235323736110345</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6235327053921162</v>
       </c>
       <c r="E8">
-        <f>A8*A8</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F8">
-        <f>C8*C8</f>
-        <v>2.3752279566476981</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3752282975367267</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8">
-        <f>SUMIF(B6:B12,"&gt;1",D6:D12)</f>
-        <v>46.070648122508203</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",D6:D12)</f>
+        <v>46.070649565023089</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="M8">
-        <f>1-SUM(K15:K21)/SUM(L15:L21)</f>
-        <v>0.42047005496963774</v>
+        <f ca="1">1-SUM(K15:K21)/SUM(L15:L21)</f>
+        <v>0.42047004935672239</v>
       </c>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B9">
-        <f>Data!B5</f>
-        <v>1.0095429499999999</v>
+        <f ca="1">Data!B29</f>
+        <v>1.0095429539283498</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.5393266273308239</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5393265398563016</v>
       </c>
       <c r="D9">
-        <f>C9*A9</f>
-        <v>6.1573065093232957</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1573061594252065</v>
       </c>
       <c r="E9">
-        <f>A9*A9</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F9">
-        <f>C9*C9</f>
-        <v>2.3695264656096895</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3695261963059742</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9">
-        <f>SUMIF(B6:B12,"&gt;1",E6:E12)</f>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",E6:E12)</f>
         <v>140</v>
       </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <f>Data!B6</f>
-        <v>1.00347944</v>
+        <f ca="1">Data!B30</f>
+        <v>1.0034794418832607</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.7341934402840578</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7341933450610567</v>
       </c>
       <c r="D10">
-        <f>C10*A10</f>
-        <v>8.6709672014202894</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6709667253052842</v>
       </c>
       <c r="E10">
-        <f>A10*A10</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F10">
-        <f>C10*C10</f>
-        <v>3.0074268883242556</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0074265580540573</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10">
-        <f>SUMIF(B6:B12,"&gt;1",F6:F12)</f>
-        <v>16.412300856633941</v>
+        <f ca="1">SUMIF(B6:B12,"&gt;1",F6:F12)</f>
+        <v>16.412301810358816</v>
       </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <f>Data!B7</f>
-        <v>1.0033519900000001</v>
+        <f ca="1">Data!B31</f>
+        <v>1.0033519863589664</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.7407376229538092</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.740737812832452</v>
       </c>
       <c r="D11">
-        <f>C11*A11</f>
-        <v>10.444425737722856</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10.444426876994712</v>
       </c>
       <c r="E11">
-        <f>A11*A11</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F11">
-        <f>C11*C11</f>
-        <v>3.0301674719668781</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0301681330247088</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11">
-        <f>COUNTIF(B6:B12,"&gt;1")</f>
+        <f ca="1">COUNTIF(B6:B12,"&gt;1")</f>
         <v>7</v>
       </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <f>Data!B8</f>
-        <v>1.0019116400000001</v>
+        <f ca="1">Data!B32</f>
+        <v>1.0019116388933691</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.8344522857475765</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8344523780206325</v>
       </c>
       <c r="D12">
-        <f>C12*A12</f>
-        <v>12.841166000233034</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12.841166646144428</v>
       </c>
       <c r="E12">
-        <f>A12*A12</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="F12">
-        <f>C12*C12</f>
-        <v>3.3652151886845081</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3652155272255539</v>
       </c>
       <c r="P12" s="2"/>
     </row>
@@ -3426,20 +4357,20 @@
     </row>
     <row r="15" spans="1:24">
       <c r="H15">
-        <f>$M$7+$M$6*A6</f>
-        <v>0.94814843495604506</v>
+        <f t="shared" ref="H15:H21" ca="1" si="4">$M$7+$M$6*A6</f>
+        <v>0.94814844575157664</v>
       </c>
       <c r="I15">
-        <f>1/(1-EXP(-$P$7*($P$6^A6)))</f>
-        <v>1.0819043032249502</v>
+        <f ca="1">1/(1-EXP(-$P$7*($P$6^A6)))</f>
+        <v>1.0819043007559837</v>
       </c>
       <c r="K15">
-        <f>(B6-I15)^2</f>
-        <v>2.7238108113188619E-2</v>
+        <f t="shared" ref="K15:K21" ca="1" si="5">(B6-I15)^2</f>
+        <v>2.7238107764851447E-2</v>
       </c>
       <c r="L15">
-        <f>(B6-AVERAGE($B$6:$B$12))^2</f>
-        <v>4.2205051240142351E-2</v>
+        <f t="shared" ref="L15:L21" ca="1" si="6">(B6-AVERAGE($B$6:$B$12))^2</f>
+        <v>4.2205050510043439E-2</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3448,115 +4379,115 @@
     </row>
     <row r="16" spans="1:24">
       <c r="H16">
-        <f>$M$7+$M$6*A7</f>
-        <v>1.1224563987394285</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1224564197156743</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I21" si="1">1/(1-EXP(-$P$7*($P$6^A7)))</f>
-        <v>1.0485590307940595</v>
+        <f t="shared" ref="I16:I21" ca="1" si="7">1/(1-EXP(-$P$7*($P$6^A7)))</f>
+        <v>1.0485590275125982</v>
       </c>
       <c r="K16">
-        <f>(B7-I16)^2</f>
-        <v>1.0700625654263545E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0700626673219853E-3</v>
       </c>
       <c r="L16">
-        <f>(B7-AVERAGE($B$6:$B$12))^2</f>
-        <v>6.5833912193440601E-4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.5833928058281889E-4</v>
       </c>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
       <c r="H17">
-        <f>$M$7+$M$6*A8</f>
-        <v>1.2967643625228118</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2967643936797721</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>1.0264815678813866</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0264815647837711</v>
       </c>
       <c r="K17">
-        <f>(B8-I17)^2</f>
-        <v>2.897296879787603E-4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8972975043343785E-4</v>
       </c>
       <c r="L17">
-        <f>(B8-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.0268961248484062E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0268963289668503E-3</v>
       </c>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
       <c r="H18">
-        <f>$M$7+$M$6*A9</f>
-        <v>1.4710723263061953</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4710723676438699</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>1.0130239992736132</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0130239968990229</v>
       </c>
       <c r="K18">
-        <f>(B9-I18)^2</f>
-        <v>1.2117704045323385E-5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2117660163672512E-5</v>
       </c>
       <c r="L18">
-        <f>(B9-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.0215943745121075E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.021594011694073E-3</v>
       </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16">
       <c r="H19" s="2">
-        <f>$M$7+$M$6*A10</f>
-        <v>1.6453802900895786</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6453803416079675</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>1.005642920606993</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0056429190917247</v>
       </c>
       <c r="K19">
-        <f>(B10-I19)^2</f>
-        <v>4.6806483368348295E-6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.6806336315431517E-6</v>
       </c>
       <c r="L19">
-        <f>(B10-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4459690708100044E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4459687946953021E-3</v>
       </c>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
       <c r="H20" s="2">
-        <f>$M$7+$M$6*A11</f>
-        <v>1.819688253872962</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8196883155720653</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>1.0020957555751158</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0020957547756326</v>
       </c>
       <c r="K20">
-        <f>(B11-I20)^2</f>
-        <v>1.578124930264431E-6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5781177909652626E-6</v>
       </c>
       <c r="L20">
-        <f>(B11-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4556781162224982E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.455678260723015E-3</v>
       </c>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
       <c r="H21" s="2">
-        <f>$M$7+$M$6*A12</f>
-        <v>1.9939962176563455</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9939962895361629</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>1.0006463427739707</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0006463424325169</v>
       </c>
       <c r="K21">
-        <f>(B12-I21)^2</f>
-        <v>1.600977070197735E-6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.6009751338450044E-6</v>
       </c>
       <c r="L21">
-        <f>(B12-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.5676610796899963E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5676610289528763E-3</v>
       </c>
       <c r="P21" s="2"/>
     </row>
@@ -3592,260 +4523,260 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <f>Data!A2</f>
+        <f ca="1">Data!A26</f>
         <v>1</v>
       </c>
       <c r="B25">
-        <f>Data!C2</f>
-        <v>1.19471971</v>
+        <f ca="1">Data!C26</f>
+        <v>1.1947197078608807</v>
       </c>
       <c r="C25">
-        <f>LN(LN(B25/(B25-1)))</f>
-        <v>0.59559264361717346</v>
+        <f ca="1">LN(LN(B25/(B25-1)))</f>
+        <v>0.59559264868587214</v>
       </c>
       <c r="D25">
-        <f>C25*A25</f>
-        <v>0.59559264361717346</v>
+        <f t="shared" ref="D25:D31" ca="1" si="8">C25*A25</f>
+        <v>0.59559264868587214</v>
       </c>
       <c r="E25">
-        <f>A25*A25</f>
+        <f t="shared" ref="E25:E31" si="9">A25*A25</f>
         <v>1</v>
       </c>
       <c r="F25">
-        <f>C25*C25</f>
-        <v>0.35473059713089339</v>
+        <f t="shared" ref="F25:F31" ca="1" si="10">C25*C25</f>
+        <v>0.35473060316865274</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
       </c>
       <c r="J25">
-        <f>SUMIF(B25:B31,"&gt;1",A25:A31)</f>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",A25:A31)</f>
         <v>16</v>
       </c>
       <c r="L25" t="s">
         <v>10</v>
       </c>
       <c r="M25">
-        <f>(J30*J27-J25*J26)/(J30*J28-J25^2)</f>
-        <v>0.29570541084446511</v>
+        <f ca="1">(J30*J27-J25*J26)/(J30*J28-J25^2)</f>
+        <v>0.29570525642399453</v>
       </c>
       <c r="O25" t="s">
         <v>19</v>
       </c>
       <c r="P25" s="2">
-        <f>EXP(M25)</f>
-        <v>1.3440741488366041</v>
+        <f ca="1">EXP(M25)</f>
+        <v>1.3440739412840577</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <f>Data!A3</f>
+        <f ca="1">Data!A27</f>
         <v>2</v>
       </c>
       <c r="B26">
-        <f>Data!C3</f>
-        <v>0.99540618999999997</v>
+        <f ca="1">Data!C27</f>
+        <v>0.99540618622168753</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" ref="C26:C31" si="2">LN(LN(B26/(B26-1)))</f>
+        <f t="shared" ref="C26:C31" ca="1" si="11">LN(LN(B26/(B26-1)))</f>
         <v>#NUM!</v>
       </c>
       <c r="D26" t="e">
-        <f>C26*A26</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="E26">
-        <f>A26*A26</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F26" t="e">
-        <f>C26*C26</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26">
-        <f>SUMIF(B25:B31,"&gt;1",C25:C31)</f>
-        <v>5.961289783210872</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",C25:C31)</f>
+        <v>5.9612886620793724</v>
       </c>
       <c r="L26" t="s">
         <v>11</v>
       </c>
       <c r="M26">
-        <f>(J26*J28-J25*J27)/(J30*J28-J25^2)</f>
-        <v>0.30750080242485772</v>
+        <f ca="1">(J26*J28-J25*J27)/(J30*J28-J25^2)</f>
+        <v>0.30750113982386501</v>
       </c>
       <c r="O26" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="2">
-        <f>EXP(M26)</f>
-        <v>1.3600218998169025</v>
+        <f ca="1">EXP(M26)</f>
+        <v>1.3600223586870186</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <f>Data!A4</f>
+        <f ca="1">Data!A28</f>
         <v>3</v>
       </c>
       <c r="B27">
-        <f>Data!C4</f>
-        <v>0.99507566000000003</v>
+        <f ca="1">Data!C28</f>
+        <v>0.99507565894700301</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="D27" t="e">
-        <f>C27*A27</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="E27">
-        <f>A27*A27</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="F27" t="e">
-        <f>C27*C27</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
       </c>
       <c r="J27">
-        <f>SUMIF(B25:B31,"&gt;1",D25:D31)</f>
-        <v>27.985034884666</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",D25:D31)</f>
+        <v>27.985028238253413</v>
       </c>
       <c r="L27" t="s">
         <v>27</v>
       </c>
       <c r="M27">
-        <f>1-SUM(K34:K40)/SUM(L34:L40)</f>
-        <v>0.66392941914729064</v>
+        <f ca="1">1-SUM(K34:K40)/SUM(L34:L40)</f>
+        <v>0.66392937248660899</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <f>Data!A5</f>
+        <f ca="1">Data!A29</f>
         <v>4</v>
       </c>
       <c r="B28">
-        <f>Data!C5</f>
-        <v>1.0101815999999999</v>
+        <f ca="1">Data!C29</f>
+        <v>1.0101816013402618</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>1.5254698763536021</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5254698480089575</v>
       </c>
       <c r="D28">
-        <f>C28*A28</f>
-        <v>6.1018795054144084</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6.1018793920358299</v>
       </c>
       <c r="E28">
-        <f>A28*A28</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="F28">
-        <f>C28*C28</f>
-        <v>2.3270583436622743</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.3270582571844716</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
       <c r="J28">
-        <f>SUMIF(B25:B31,"&gt;1",E25:E31)</f>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",E25:E31)</f>
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <f>Data!A6</f>
+        <f ca="1">Data!A30</f>
         <v>5</v>
       </c>
       <c r="B29">
-        <f>Data!C6</f>
-        <v>1.0031091299999999</v>
+        <f ca="1">Data!C30</f>
+        <v>1.0031091308833249</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
-        <v>1.7538008438061632</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1.7538007947755456</v>
       </c>
       <c r="D29">
-        <f>C29*A29</f>
-        <v>8.7690042190308155</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.7690039738777283</v>
       </c>
       <c r="E29">
-        <f>A29*A29</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="F29">
-        <f>C29*C29</f>
-        <v>3.0758173997352101</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.0758172277553353</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29">
-        <f>SUMIF(B25:B31,"&gt;1",F25:F31)</f>
-        <v>10.110781544240282</v>
+        <f ca="1">SUMIF(B25:B31,"&gt;1",F25:F31)</f>
+        <v>10.110776915229351</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <f>Data!A7</f>
+        <f ca="1">Data!A31</f>
         <v>6</v>
       </c>
       <c r="B30">
-        <f>Data!C7</f>
-        <v>1.00031727</v>
+        <f ca="1">Data!C31</f>
+        <v>1.0003172726816054</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
-        <v>2.0864264194339333</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2.0864253706089975</v>
       </c>
       <c r="D30">
-        <f>C30*A30</f>
-        <v>12.5185585166036</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12.518552223653984</v>
       </c>
       <c r="E30">
-        <f>A30*A30</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="F30">
-        <f>C30*C30</f>
-        <v>4.3531752037119036</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.3531708271208922</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
       <c r="J30">
-        <f>COUNTIF(B25:B31,"&gt;1")</f>
+        <f ca="1">COUNTIF(B25:B31,"&gt;1")</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <f>Data!A8</f>
+        <f ca="1">Data!A32</f>
         <v>7</v>
       </c>
       <c r="B31">
-        <f>Data!C8</f>
-        <v>0.98794674000000005</v>
+        <f ca="1">Data!C32</f>
+        <v>0.98794673522373588</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="D31" t="e">
-        <f>C31*A31</f>
+        <f t="shared" ca="1" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="E31">
-        <f>A31*A31</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="F31" t="e">
-        <f>C31*C31</f>
+        <f t="shared" ca="1" si="10"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3865,132 +4796,133 @@
     </row>
     <row r="34" spans="8:12">
       <c r="H34">
-        <f>$M$7+$M$6*A25</f>
-        <v>0.94814843495604506</v>
+        <f t="shared" ref="H34:H40" ca="1" si="12">$M$7+$M$6*A25</f>
+        <v>0.94814844575157664</v>
       </c>
       <c r="I34">
-        <f>1/(1-EXP(-$P$26*($P$25^A25)))</f>
-        <v>1.1915251488994909</v>
+        <f t="shared" ref="I34:I40" ca="1" si="13">1/(1-EXP(-$P$26*($P$25^A25)))</f>
+        <v>1.1915250725689674</v>
       </c>
       <c r="K34">
-        <f>(B25-I34)^2</f>
-        <v>1.0205220624885821E-5</v>
+        <f t="shared" ref="K34:K40" ca="1" si="14">(B25-I34)^2</f>
+        <v>1.0205694648337446E-5</v>
       </c>
       <c r="L34">
-        <f>(B25-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.3474643174496879E-2</v>
+        <f t="shared" ref="L34:L40" ca="1" si="15">(B25-AVERAGE($B$6:$B$12))^2</f>
+        <v>2.3474643054448463E-2</v>
       </c>
     </row>
     <row r="35" spans="8:12">
       <c r="H35">
-        <f>$M$7+$M$6*A26</f>
-        <v>1.1224563987394285</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.1224564197156743</v>
       </c>
       <c r="I35">
-        <f>1/(1-EXP(-$P$26*($P$25^A26)))</f>
-        <v>1.0937303330055341</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0937303258125095</v>
       </c>
       <c r="K35">
-        <f>(B26-I35)^2</f>
-        <v>9.6676370977727324E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9.6676364262754458E-3</v>
       </c>
       <c r="L35">
-        <f>(B26-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.1251316307225082E-3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.1251318179735064E-3</v>
       </c>
     </row>
     <row r="36" spans="8:12">
       <c r="H36">
-        <f>$M$7+$M$6*A27</f>
-        <v>1.2967643625228118</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.2967643936797721</v>
       </c>
       <c r="I36">
-        <f>1/(1-EXP(-$P$26*($P$25^A27)))</f>
-        <v>1.0382045746678019</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0382045911536004</v>
       </c>
       <c r="K36">
-        <f>(B27-I36)^2</f>
-        <v>1.8601032804225369E-3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.8601047932812757E-3</v>
       </c>
       <c r="L36">
-        <f>(B27-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.1557151849024027E-3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.1557151204249373E-3</v>
       </c>
     </row>
     <row r="37" spans="8:12">
       <c r="H37">
-        <f>$M$7+$M$6*A28</f>
-        <v>1.4710723263061953</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.4710723676438699</v>
       </c>
       <c r="I37">
-        <f>1/(1-EXP(-$P$26*($P$25^A28)))</f>
-        <v>1.0119545561237857</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0119545711735625</v>
       </c>
       <c r="K37">
-        <f>(B28-I37)^2</f>
-        <v>3.1433734168695945E-6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3.1434220297941836E-6</v>
       </c>
       <c r="L37">
-        <f>(B28-AVERAGE($B$6:$B$12))^2</f>
-        <v>9.8117668758760973E-4</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>9.8117649415631705E-4</v>
       </c>
     </row>
     <row r="38" spans="8:12">
       <c r="H38">
-        <f>$M$7+$M$6*A29</f>
-        <v>1.6453802900895786</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.6453803416079675</v>
       </c>
       <c r="I38">
-        <f>1/(1-EXP(-$P$26*($P$25^A29)))</f>
-        <v>1.0025718233194598</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0025718300061641</v>
       </c>
       <c r="K38">
-        <f>(B29-I38)^2</f>
-        <v>2.886984689530038E-7</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2.8869223259771269E-7</v>
       </c>
       <c r="L38">
-        <f>(B29-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.4742689423641118E-3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.4742687403479797E-3</v>
       </c>
     </row>
     <row r="39" spans="8:12">
       <c r="H39">
-        <f>$M$7+$M$6*A30</f>
-        <v>1.819688253872962</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.8196883155720653</v>
       </c>
       <c r="I39">
-        <f>1/(1-EXP(-$P$26*($P$25^A30)))</f>
-        <v>1.0003294699473873</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0003294715042546</v>
       </c>
       <c r="K39">
-        <f>(B30-I39)^2</f>
-        <v>1.4883871625080799E-10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.4881127402503198E-10</v>
       </c>
       <c r="L39">
-        <f>(B30-AVERAGE($B$6:$B$12))^2</f>
-        <v>1.6964571103249017E-3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1.6964567454844132E-3</v>
       </c>
     </row>
     <row r="40" spans="8:12">
       <c r="H40">
-        <f>$M$7+$M$6*A31</f>
-        <v>1.9939962176563455</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.9939962895361629</v>
       </c>
       <c r="I40">
-        <f>1/(1-EXP(-$P$26*($P$25^A31)))</f>
-        <v>1.0000208690663335</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.000020869233569</v>
       </c>
       <c r="K40">
-        <f>(B31-I40)^2</f>
-        <v>1.4578459271047774E-4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.457847120874095E-4</v>
       </c>
       <c r="L40">
-        <f>(B31-AVERAGE($B$6:$B$12))^2</f>
-        <v>2.8685236339600012E-3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.8685239584084771E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>